--- a/data/trans_orig/NIVEL_ESTUDIOS_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/NIVEL_ESTUDIOS_R-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en País Vasco</t>
+          <t>Nivel de estudios en País Vasco (tasa de respuesta: 99,55%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4437,7 +4437,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Andalucia</t>
+          <t>Nivel de estudios en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8328,7 +8328,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en C.Valenciana</t>
+          <t>Nivel de estudios en C.Valenciana (tasa de respuesta: 99,46%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -12219,7 +12219,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nivel de estudios en Barcelona</t>
+          <t>Nivel de estudios en Barcelona (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/NIVEL_ESTUDIOS_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/NIVEL_ESTUDIOS_R-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11289</t>
+          <t>13684</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8662</t>
+          <t>10773</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14051</t>
+          <t>16944</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>21,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13212</t>
+          <t>13104</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10579</t>
+          <t>10321</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16392</t>
+          <t>16054</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>26,18%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>24501</t>
+          <t>26789</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>20859</t>
+          <t>22472</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>28798</t>
+          <t>31405</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>21,84%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>49827</t>
+          <t>61388</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>46977</t>
+          <t>57765</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52741</t>
+          <t>64617</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>78,94%</t>
+          <t>79,28%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,43%</t>
+          <t>74,6%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,56%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46511</t>
+          <t>50769</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43227</t>
+          <t>47528</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49498</t>
+          <t>53752</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>74,28%</t>
+          <t>76,5%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,04%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>96338</t>
+          <t>112156</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>91520</t>
+          <t>107410</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>100071</t>
+          <t>116722</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>81,17%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>2491</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1557</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>4898</t>
+          <t>4855</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3279</t>
+          <t>3197</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>7245</t>
+          <t>7079</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>4,92%</t>
         </is>
       </c>
     </row>
@@ -1075,17 +1075,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63117</t>
+          <t>77436</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63117</t>
+          <t>77436</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>63117</t>
+          <t>77436</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1110,17 +1110,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62620</t>
+          <t>66364</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>62620</t>
+          <t>66364</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>62620</t>
+          <t>66364</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1145,17 +1145,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>125737</t>
+          <t>143799</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>125737</t>
+          <t>143799</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>125737</t>
+          <t>143799</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25249</t>
+          <t>29160</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21461</t>
+          <t>25504</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28621</t>
+          <t>33209</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>36,41%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,95%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,27%</t>
+          <t>44,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>31825</t>
+          <t>36804</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28705</t>
+          <t>33016</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>35801</t>
+          <t>40381</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>47,71%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>56,29%</t>
+          <t>58,35%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>57074</t>
+          <t>65964</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>52436</t>
+          <t>60947</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>62086</t>
+          <t>71722</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>45,73%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>42,25%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>49,72%</t>
         </is>
       </c>
     </row>
@@ -1305,32 +1305,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40887</t>
+          <t>42229</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37590</t>
+          <t>38179</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44452</t>
+          <t>46032</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,96%</t>
+          <t>56,27%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>54,21%</t>
+          <t>50,87%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>64,1%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28986</t>
+          <t>29057</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25406</t>
+          <t>25384</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32011</t>
+          <t>32939</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>45,57%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>50,33%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>69873</t>
+          <t>71286</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>64808</t>
+          <t>65550</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>74807</t>
+          <t>76176</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>52,56%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>56,27%</t>
+          <t>52,81%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3208</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>5869</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5999</t>
+          <t>6997</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4074</t>
+          <t>4701</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8624</t>
+          <t>9825</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,81%</t>
         </is>
       </c>
     </row>
@@ -1531,17 +1531,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69344</t>
+          <t>75045</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>69344</t>
+          <t>75045</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>69344</t>
+          <t>75045</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>63601</t>
+          <t>69202</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>63601</t>
+          <t>69202</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>63601</t>
+          <t>69202</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1601,17 +1601,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>132945</t>
+          <t>144247</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>132945</t>
+          <t>144247</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>132945</t>
+          <t>144247</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1648,32 +1648,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25215</t>
+          <t>30575</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21447</t>
+          <t>26148</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29491</t>
+          <t>35298</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>25,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1683,32 +1683,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>42614</t>
+          <t>49529</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>38268</t>
+          <t>44609</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>47186</t>
+          <t>54659</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>43,29%</t>
+          <t>44,56%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>40,13%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>47,93%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1718,32 +1718,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>67828</t>
+          <t>80104</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>61875</t>
+          <t>73530</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>74010</t>
+          <t>86560</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>38,27%</t>
+          <t>40,22%</t>
         </is>
       </c>
     </row>
@@ -1761,32 +1761,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61589</t>
+          <t>64284</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57057</t>
+          <t>59537</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>65465</t>
+          <t>68573</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>61,77%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>57,21%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,94%</t>
+          <t>65,89%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1796,32 +1796,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52213</t>
+          <t>57366</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47698</t>
+          <t>52315</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>56583</t>
+          <t>61899</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>53,04%</t>
+          <t>51,61%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>55,68%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1831,32 +1831,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>113802</t>
+          <t>121650</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>107503</t>
+          <t>115172</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>119671</t>
+          <t>129113</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>58,84%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>55,59%</t>
+          <t>53,51%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>59,99%</t>
         </is>
       </c>
     </row>
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8160</t>
+          <t>9206</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>6798</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10848</t>
+          <t>11985</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,42%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3612</t>
+          <t>4268</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2239</t>
+          <t>2755</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5613</t>
+          <t>6567</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>11772</t>
+          <t>13474</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>8928</t>
+          <t>10561</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>14507</t>
+          <t>16858</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>7,83%</t>
         </is>
       </c>
     </row>
@@ -1987,17 +1987,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94964</t>
+          <t>104065</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94964</t>
+          <t>104065</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>94964</t>
+          <t>104065</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2022,17 +2022,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>98439</t>
+          <t>111163</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>98439</t>
+          <t>111163</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>98439</t>
+          <t>111163</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2057,17 +2057,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>193402</t>
+          <t>215228</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>193402</t>
+          <t>215228</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>193402</t>
+          <t>215228</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2104,32 +2104,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33352</t>
+          <t>39928</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28561</t>
+          <t>34783</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>37949</t>
+          <t>45075</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>31,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2139,32 +2139,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>48367</t>
+          <t>59861</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>44035</t>
+          <t>54850</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>53200</t>
+          <t>66017</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>35,11%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>36,07%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2174,32 +2174,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>81719</t>
+          <t>99789</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>75475</t>
+          <t>92160</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>89159</t>
+          <t>107257</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>36,16%</t>
         </is>
       </c>
     </row>
@@ -2217,32 +2217,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95269</t>
+          <t>95880</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90470</t>
+          <t>90625</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>100403</t>
+          <t>101541</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>65,17%</t>
+          <t>62,7%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>72,33%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2252,32 +2252,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>81632</t>
+          <t>84581</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>76560</t>
+          <t>78642</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>86276</t>
+          <t>89834</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>59,25%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>51,71%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>62,62%</t>
+          <t>59,07%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2287,32 +2287,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>176902</t>
+          <t>180462</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>169538</t>
+          <t>172878</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>183622</t>
+          <t>188217</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
+          <t>60,84%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>61,3%</t>
+          <t>58,29%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>66,39%</t>
+          <t>63,46%</t>
         </is>
       </c>
     </row>
@@ -2330,32 +2330,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10195</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7796</t>
+          <t>6482</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13228</t>
+          <t>11680</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2365,32 +2365,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>7777</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5688</t>
+          <t>5592</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>10373</t>
+          <t>10386</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2400,32 +2400,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>17972</t>
+          <t>16352</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>14394</t>
+          <t>13219</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>22031</t>
+          <t>19964</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>6,73%</t>
         </is>
       </c>
     </row>
@@ -2443,17 +2443,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>138815</t>
+          <t>144528</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>138815</t>
+          <t>144528</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>138815</t>
+          <t>144528</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2478,17 +2478,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>137776</t>
+          <t>152075</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>137776</t>
+          <t>152075</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>137776</t>
+          <t>152075</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2513,17 +2513,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>276592</t>
+          <t>296603</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>276592</t>
+          <t>296603</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>276592</t>
+          <t>296603</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2560,32 +2560,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>26162</t>
+          <t>31285</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>22257</t>
+          <t>27069</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>30186</t>
+          <t>36017</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2595,32 +2595,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>35463</t>
+          <t>42069</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>31447</t>
+          <t>37306</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>40535</t>
+          <t>47409</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>24,63%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2630,32 +2630,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>61626</t>
+          <t>73354</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>55930</t>
+          <t>66422</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>67683</t>
+          <t>79613</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>26,17%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>28,4%</t>
         </is>
       </c>
     </row>
@@ -2673,32 +2673,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>84804</t>
+          <t>83450</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>80188</t>
+          <t>78387</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>89092</t>
+          <t>88875</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>67,34%</t>
+          <t>64,78%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>60,85%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>70,74%</t>
+          <t>68,99%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2708,67 +2708,67 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>98553</t>
+          <t>97013</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93453</t>
+          <t>91858</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>103107</t>
+          <t>102298</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
+          <t>64,05%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>60,65%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>67,54%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>180463</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>172884</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>187741</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>64,39%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>61,68%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
           <t>66,98%</t>
-        </is>
-      </c>
-      <c r="O21" s="2" t="inlineStr">
-        <is>
-          <t>63,52%</t>
-        </is>
-      </c>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>70,08%</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>1046</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>183357</t>
-        </is>
-      </c>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>176107</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr">
-        <is>
-          <t>189516</t>
-        </is>
-      </c>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>67,15%</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="inlineStr">
-        <is>
-          <t>64,49%</t>
-        </is>
-      </c>
-      <c r="W21" s="2" t="inlineStr">
-        <is>
-          <t>69,4%</t>
         </is>
       </c>
     </row>
@@ -2786,102 +2786,102 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14973</t>
+          <t>14087</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11895</t>
+          <t>10979</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18916</t>
+          <t>17516</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>12374</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9618</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>26461</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>22296</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>30928</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
           <t>9,44%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>15,02%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>13114</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>10415</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>16532</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>8,91%</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>7,08%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>11,24%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>28087</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>23519</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>32921</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>10,29%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -2899,17 +2899,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>125940</t>
+          <t>128822</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>125940</t>
+          <t>128822</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>125940</t>
+          <t>128822</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2934,17 +2934,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>147130</t>
+          <t>151456</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>147130</t>
+          <t>151456</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>147130</t>
+          <t>151456</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>273070</t>
+          <t>280278</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>273070</t>
+          <t>280278</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>273070</t>
+          <t>280278</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3016,32 +3016,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>22491</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>17917</t>
+          <t>19020</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>25288</t>
+          <t>26581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>21,37%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>25,25%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3051,32 +3051,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>16657</t>
+          <t>19368</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>13912</t>
+          <t>16281</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>20129</t>
+          <t>23235</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3086,32 +3086,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>38157</t>
+          <t>41860</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>33494</t>
+          <t>36751</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>43143</t>
+          <t>47006</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>21,26%</t>
         </is>
       </c>
     </row>
@@ -3129,32 +3129,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>66162</t>
+          <t>63949</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>61760</t>
+          <t>59442</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>70670</t>
+          <t>67739</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>61,28%</t>
+          <t>60,76%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>57,2%</t>
+          <t>56,47%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>65,46%</t>
+          <t>64,36%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3164,32 +3164,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>70514</t>
+          <t>70953</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>65951</t>
+          <t>66304</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>75161</t>
+          <t>75410</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>61,23%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>57,22%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>65,49%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3199,22 +3199,22 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>136675</t>
+          <t>134902</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>129848</t>
+          <t>128934</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>142377</t>
+          <t>140885</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>61,36%</t>
+          <t>61,0%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>63,92%</t>
+          <t>63,71%</t>
         </is>
       </c>
     </row>
@@ -3242,67 +3242,67 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>20302</t>
+          <t>18814</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>17009</t>
+          <t>15761</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23819</t>
+          <t>22149</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>21,04%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>25563</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>21628</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>29359</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
           <t>22,06%</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>27593</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>23378</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>31663</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>24,04%</t>
-        </is>
-      </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3312,32 +3312,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>47895</t>
+          <t>44377</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>42826</t>
+          <t>39795</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>53990</t>
+          <t>49883</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>22,56%</t>
         </is>
       </c>
     </row>
@@ -3355,17 +3355,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>107964</t>
+          <t>105254</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>107964</t>
+          <t>105254</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>107964</t>
+          <t>105254</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3390,17 +3390,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>114764</t>
+          <t>115884</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>114764</t>
+          <t>115884</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>114764</t>
+          <t>115884</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3425,17 +3425,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>222728</t>
+          <t>221138</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>222728</t>
+          <t>221138</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>222728</t>
+          <t>221138</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3472,32 +3472,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>9720</t>
+          <t>9244</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7361</t>
+          <t>6852</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>12659</t>
+          <t>11691</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3507,32 +3507,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>7759</t>
+          <t>8916</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>5786</t>
+          <t>6628</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>10249</t>
+          <t>11590</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>8,75%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3542,32 +3542,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>17479</t>
+          <t>18160</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>14476</t>
+          <t>15091</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>21453</t>
+          <t>21760</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>9,82%</t>
         </is>
       </c>
     </row>
@@ -3585,32 +3585,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>56259</t>
+          <t>53189</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>51395</t>
+          <t>48947</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>60389</t>
+          <t>57146</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>58,52%</t>
+          <t>59,67%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>54,91%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>62,82%</t>
+          <t>64,1%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3620,32 +3620,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>55863</t>
+          <t>57186</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>51033</t>
+          <t>52556</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>60614</t>
+          <t>61960</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>39,67%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>45,22%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3655,32 +3655,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>112122</t>
+          <t>110375</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>105433</t>
+          <t>103581</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>119038</t>
+          <t>116116</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>48,71%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>45,81%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>52,39%</t>
         </is>
       </c>
     </row>
@@ -3698,32 +3698,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>30149</t>
+          <t>26713</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>25985</t>
+          <t>23443</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>34959</t>
+          <t>30858</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>34,62%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3733,32 +3733,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>70428</t>
+          <t>66375</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>65582</t>
+          <t>61281</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>75297</t>
+          <t>71302</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>52,54%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>48,92%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>56,17%</t>
+          <t>53,82%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3768,32 +3768,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>100577</t>
+          <t>93087</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>94025</t>
+          <t>87101</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>107002</t>
+          <t>99575</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>43,7%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>44,93%</t>
         </is>
       </c>
     </row>
@@ -3811,17 +3811,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>96129</t>
+          <t>89146</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>96129</t>
+          <t>89146</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>96129</t>
+          <t>89146</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3846,17 +3846,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>134049</t>
+          <t>132476</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3881,17 +3881,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>230178</t>
+          <t>221622</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>230178</t>
+          <t>221622</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>230178</t>
+          <t>221622</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3928,32 +3928,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>152487</t>
+          <t>176368</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>143741</t>
+          <t>165841</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>162622</t>
+          <t>187181</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>22,9%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3963,32 +3963,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>195897</t>
+          <t>229650</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>185708</t>
+          <t>218568</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>207449</t>
+          <t>242749</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>28,76%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3998,32 +3998,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>348384</t>
+          <t>406019</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>333201</t>
+          <t>390036</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>362732</t>
+          <t>423005</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>27,78%</t>
         </is>
       </c>
     </row>
@@ -4041,32 +4041,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>454796</t>
+          <t>464369</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>442789</t>
+          <t>452794</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>465072</t>
+          <t>474784</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>65,32%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>62,51%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>66,79%</t>
+          <t>65,55%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>434272</t>
+          <t>446925</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>422155</t>
+          <t>434216</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>446370</t>
+          <t>459550</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>55,96%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>55,67%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>58,86%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4111,32 +4111,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>889068</t>
+          <t>911294</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>872285</t>
+          <t>892292</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>905703</t>
+          <t>927687</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>61,12%</t>
+          <t>59,84%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>59,97%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>60,92%</t>
         </is>
       </c>
     </row>
@@ -4154,102 +4154,102 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>88988</t>
+          <t>83560</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>81205</t>
+          <t>76632</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>97016</t>
+          <t>91789</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
+          <t>11,54%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>10,58%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>12,67%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>122043</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>113922</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>130672</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>15,28%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>205603</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>194636</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>217755</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
           <t>12,78%</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>13,93%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>758</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>128211</t>
-        </is>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
-        <is>
-          <t>118894</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="inlineStr">
-        <is>
-          <t>137928</t>
-        </is>
-      </c>
-      <c r="N34" s="2" t="inlineStr">
-        <is>
-          <t>16,91%</t>
-        </is>
-      </c>
-      <c r="O34" s="2" t="inlineStr">
-        <is>
-          <t>15,68%</t>
-        </is>
-      </c>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>18,19%</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>1266</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr">
-        <is>
-          <t>217200</t>
-        </is>
-      </c>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>205542</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>229275</t>
-        </is>
-      </c>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>14,93%</t>
-        </is>
-      </c>
-      <c r="V34" s="2" t="inlineStr">
-        <is>
-          <t>14,13%</t>
-        </is>
-      </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>14,3%</t>
         </is>
       </c>
     </row>
@@ -4267,17 +4267,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>696272</t>
+          <t>724297</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4302,17 +4302,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>758380</t>
+          <t>798619</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4337,17 +4337,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1454652</t>
+          <t>1522916</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4632,12 +4632,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12398</t>
+          <t>12403</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39716</t>
+          <t>41432</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4667,12 +4667,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16552</t>
+          <t>16160</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>40871</t>
+          <t>41728</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4702,12 +4702,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>32357</t>
+          <t>34376</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>70770</t>
+          <t>70744</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4717,12 +4717,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,82%</t>
         </is>
       </c>
     </row>
@@ -4745,12 +4745,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>187206</t>
+          <t>187748</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>221594</t>
+          <t>220850</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,25%</t>
+          <t>79,47%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,8%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>133694</t>
+          <t>134299</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>161883</t>
+          <t>163585</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>72,52%</t>
+          <t>72,85%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4815,12 +4815,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>334592</t>
+          <t>335280</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>376709</t>
+          <t>376694</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4830,12 +4830,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>79,55%</t>
+          <t>79,72%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>89,56%</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25209</t>
+          <t>26236</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4893,12 +4893,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2345</t>
+          <t>2396</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>18421</t>
+          <t>21328</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4928,12 +4928,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3093</t>
+          <t>4454</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>31682</t>
+          <t>30299</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4943,12 +4943,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,2%</t>
         </is>
       </c>
     </row>
@@ -5088,12 +5088,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41601</t>
+          <t>43181</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>77793</t>
+          <t>78697</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5123,12 +5123,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>44217</t>
+          <t>40310</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>113873</t>
+          <t>114541</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5158,12 +5158,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>88873</t>
+          <t>92782</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>175864</t>
+          <t>172971</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5173,12 +5173,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>31,88%</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5201,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>134276</t>
+          <t>133665</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>172566</t>
+          <t>171142</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>58,85%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>75,63%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5236,12 +5236,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>191473</t>
+          <t>190303</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>266077</t>
+          <t>269642</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>60,52%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>84,62%</t>
+          <t>85,76%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5271,12 +5271,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>341694</t>
+          <t>342838</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>438164</t>
+          <t>438705</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5286,12 +5286,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>62,97%</t>
+          <t>63,18%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>80,75%</t>
+          <t>80,85%</t>
         </is>
       </c>
     </row>
@@ -5314,12 +5314,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7284</t>
+          <t>7169</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27036</t>
+          <t>27248</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5349,12 +5349,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2442</t>
+          <t>2765</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15994</t>
+          <t>16504</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>11850</t>
+          <t>12403</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>35729</t>
+          <t>37438</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5399,12 +5399,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>6,9%</t>
         </is>
       </c>
     </row>
@@ -5544,12 +5544,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>80626</t>
+          <t>81845</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>115407</t>
+          <t>115440</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5559,12 +5559,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5579,12 +5579,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>81612</t>
+          <t>80941</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>108227</t>
+          <t>108017</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5594,12 +5594,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5614,12 +5614,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>170119</t>
+          <t>170074</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214301</t>
+          <t>213476</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5629,12 +5629,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>33,73%</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>174288</t>
+          <t>175754</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>210335</t>
+          <t>210304</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5672,12 +5672,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,14%</t>
+          <t>56,61%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5692,12 +5692,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>198619</t>
+          <t>197633</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>225927</t>
+          <t>226500</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5707,12 +5707,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>61,6%</t>
+          <t>61,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>70,07%</t>
+          <t>70,24%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5727,12 +5727,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>382464</t>
+          <t>383075</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>428547</t>
+          <t>428192</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5742,12 +5742,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>60,43%</t>
+          <t>60,53%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>67,71%</t>
+          <t>67,66%</t>
         </is>
       </c>
     </row>
@@ -5770,12 +5770,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>12554</t>
+          <t>12713</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30886</t>
+          <t>30428</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5785,12 +5785,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5805,12 +5805,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10168</t>
+          <t>10209</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>23875</t>
+          <t>23469</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>25257</t>
+          <t>25715</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>48617</t>
+          <t>47270</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>7,47%</t>
         </is>
       </c>
     </row>
@@ -6000,12 +6000,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>37521</t>
+          <t>33549</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>190060</t>
+          <t>192776</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6015,12 +6015,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>101529</t>
+          <t>103166</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>132414</t>
+          <t>131581</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6070,12 +6070,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>103833</t>
+          <t>114525</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>307197</t>
+          <t>309365</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6085,12 +6085,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>30,03%</t>
         </is>
       </c>
     </row>
@@ -6113,12 +6113,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>385072</t>
+          <t>382499</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>580844</t>
+          <t>585389</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6128,12 +6128,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>61,09%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6148,12 +6148,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>231647</t>
+          <t>232295</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>265324</t>
+          <t>264490</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>57,32%</t>
+          <t>57,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>65,65%</t>
+          <t>65,45%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6183,12 +6183,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>631299</t>
+          <t>630651</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>890877</t>
+          <t>883167</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>61,27%</t>
+          <t>61,21%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>86,47%</t>
+          <t>85,72%</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9679</t>
+          <t>8756</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>57515</t>
+          <t>57691</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6241,12 +6241,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>28617</t>
+          <t>27425</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>54781</t>
+          <t>57946</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -6296,12 +6296,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>32443</t>
+          <t>31459</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>98425</t>
+          <t>99414</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,65%</t>
         </is>
       </c>
     </row>
@@ -6456,12 +6456,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>72328</t>
+          <t>71680</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>101136</t>
+          <t>105552</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6471,12 +6471,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6491,12 +6491,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>54946</t>
+          <t>54844</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>76613</t>
+          <t>76611</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>17,1%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
@@ -6526,12 +6526,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>131985</t>
+          <t>134445</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>169613</t>
+          <t>170327</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6541,12 +6541,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>25,75%</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>188777</t>
+          <t>188563</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>222393</t>
+          <t>222754</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6584,12 +6584,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>55,44%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>65,49%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6604,12 +6604,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>173709</t>
+          <t>173533</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>200339</t>
+          <t>200032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6619,12 +6619,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>54,07%</t>
+          <t>54,01%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>62,36%</t>
+          <t>62,26%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6639,12 +6639,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>371179</t>
+          <t>372646</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>414046</t>
+          <t>416275</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6654,12 +6654,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>56,12%</t>
+          <t>56,34%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>62,6%</t>
+          <t>62,94%</t>
         </is>
       </c>
     </row>
@@ -6682,12 +6682,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>36896</t>
+          <t>36078</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>60429</t>
+          <t>59987</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6697,12 +6697,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6717,12 +6717,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>59575</t>
+          <t>58516</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>80700</t>
+          <t>82183</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6732,12 +6732,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6752,12 +6752,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>101899</t>
+          <t>100541</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>135106</t>
+          <t>133073</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6767,12 +6767,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>20,12%</t>
         </is>
       </c>
     </row>
@@ -6912,12 +6912,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>43042</t>
+          <t>43351</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>63469</t>
+          <t>64357</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6927,12 +6927,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6947,12 +6947,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>12001</t>
+          <t>12451</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>74729</t>
+          <t>73541</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6962,12 +6962,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6982,12 +6982,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>38526</t>
+          <t>35945</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>136560</t>
+          <t>136838</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6997,12 +6997,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>20,85%</t>
+          <t>20,89%</t>
         </is>
       </c>
     </row>
@@ -7025,12 +7025,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>92287</t>
+          <t>90050</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>115354</t>
+          <t>114289</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7040,12 +7040,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>55,95%</t>
+          <t>55,43%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7060,12 +7060,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>182044</t>
+          <t>184809</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>401634</t>
+          <t>399633</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7075,12 +7075,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>40,57%</t>
+          <t>41,18%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7095,12 +7095,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>291815</t>
+          <t>292987</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>545946</t>
+          <t>552513</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7110,12 +7110,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>84,36%</t>
         </is>
       </c>
     </row>
@@ -7138,12 +7138,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>40321</t>
+          <t>40293</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>60854</t>
+          <t>60532</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7153,12 +7153,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7173,12 +7173,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>35113</t>
+          <t>36695</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>197563</t>
+          <t>196718</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7188,12 +7188,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7208,12 +7208,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>69321</t>
+          <t>66946</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>231467</t>
+          <t>230798</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7223,12 +7223,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>35,24%</t>
         </is>
       </c>
     </row>
@@ -7368,12 +7368,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>23670</t>
+          <t>23494</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>39349</t>
+          <t>39274</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7383,12 +7383,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -7403,12 +7403,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>15019</t>
+          <t>14311</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>27593</t>
+          <t>27484</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7418,12 +7418,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -7438,12 +7438,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>41963</t>
+          <t>40933</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>62025</t>
+          <t>61744</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7453,12 +7453,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>10,92%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -7481,12 +7481,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>50590</t>
+          <t>49028</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>69645</t>
+          <t>69266</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7496,12 +7496,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7516,12 +7516,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>46851</t>
+          <t>47507</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>66429</t>
+          <t>66282</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7531,12 +7531,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7551,12 +7551,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>102072</t>
+          <t>102234</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>129767</t>
+          <t>130252</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7566,12 +7566,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>26,57%</t>
+          <t>26,61%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>33,9%</t>
         </is>
       </c>
     </row>
@@ -7594,12 +7594,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>50631</t>
+          <t>51433</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>70037</t>
+          <t>70973</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7609,12 +7609,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7629,12 +7629,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>145339</t>
+          <t>145685</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>166718</t>
+          <t>166150</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7644,12 +7644,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>62,37%</t>
+          <t>62,51%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7664,12 +7664,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>202449</t>
+          <t>203173</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>231531</t>
+          <t>232656</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>60,27%</t>
+          <t>60,56%</t>
         </is>
       </c>
     </row>
@@ -7824,12 +7824,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>306049</t>
+          <t>300527</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>534554</t>
+          <t>536181</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -7839,12 +7839,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>14,32%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>25,55%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -7859,12 +7859,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>315738</t>
+          <t>317883</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>510127</t>
+          <t>509488</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -7874,12 +7874,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -7894,12 +7894,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>718667</t>
+          <t>707035</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1017255</t>
+          <t>1002857</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -7909,12 +7909,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>23,18%</t>
         </is>
       </c>
     </row>
@@ -7937,12 +7937,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1303963</t>
+          <t>1301835</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>1643135</t>
+          <t>1646872</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -7952,12 +7952,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>62,04%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>78,3%</t>
+          <t>78,48%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -7972,12 +7972,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>1267228</t>
+          <t>1272483</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>1619132</t>
+          <t>1614286</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -7987,12 +7987,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>72,66%</t>
+          <t>72,44%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -8007,12 +8007,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>2613705</t>
+          <t>2629667</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>3104482</t>
+          <t>3110105</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8022,12 +8022,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>60,41%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>71,75%</t>
+          <t>71,88%</t>
         </is>
       </c>
     </row>
@@ -8050,12 +8050,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>154972</t>
+          <t>151185</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>272941</t>
+          <t>271425</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8065,12 +8065,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8085,12 +8085,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>289346</t>
+          <t>285103</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>457621</t>
+          <t>457787</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8100,7 +8100,7 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
@@ -8120,12 +8120,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>488859</t>
+          <t>504920</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>705200</t>
+          <t>700929</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8135,12 +8135,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,2%</t>
         </is>
       </c>
     </row>
@@ -12414,12 +12414,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4716</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11919</t>
+          <t>11310</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -12429,12 +12429,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -12449,12 +12449,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5129</t>
+          <t>5290</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11864</t>
+          <t>11695</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -12464,12 +12464,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -12484,12 +12484,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>11186</t>
+          <t>11110</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>20645</t>
+          <t>21141</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -12499,12 +12499,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>16,75%</t>
         </is>
       </c>
     </row>
@@ -12527,12 +12527,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50092</t>
+          <t>50851</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>57838</t>
+          <t>58329</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -12542,12 +12542,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>77,45%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,43%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -12562,12 +12562,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46504</t>
+          <t>46581</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>54053</t>
+          <t>54008</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -12577,12 +12577,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>75,57%</t>
+          <t>75,69%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>87,76%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -12597,12 +12597,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>99743</t>
+          <t>99622</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>110528</t>
+          <t>110607</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -12612,12 +12612,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>78,93%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>87,57%</t>
+          <t>87,63%</t>
         </is>
       </c>
     </row>
@@ -12640,12 +12640,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>4718</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -12655,12 +12655,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -12675,12 +12675,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1287</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5786</t>
+          <t>5773</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -12690,12 +12690,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -12710,12 +12710,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>3197</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>8517</t>
+          <t>8932</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -12725,12 +12725,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -12870,12 +12870,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41821</t>
+          <t>41400</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>57794</t>
+          <t>57842</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -12885,12 +12885,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>46,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -12905,12 +12905,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>64981</t>
+          <t>65499</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>82319</t>
+          <t>81722</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -12920,12 +12920,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>50,93%</t>
+          <t>51,33%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>64,52%</t>
+          <t>64,05%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -12940,12 +12940,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>110296</t>
+          <t>111816</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>134960</t>
+          <t>135077</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -12955,12 +12955,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>44,0%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>53,84%</t>
+          <t>53,88%</t>
         </is>
       </c>
     </row>
@@ -12983,12 +12983,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57312</t>
+          <t>57670</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73925</t>
+          <t>74186</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -12998,12 +12998,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>46,85%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60,06%</t>
+          <t>60,27%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -13018,12 +13018,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37630</t>
+          <t>38131</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>53930</t>
+          <t>54177</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -13033,12 +13033,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -13053,12 +13053,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>99761</t>
+          <t>98998</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>123973</t>
+          <t>122203</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -13068,12 +13068,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>39,8%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>49,45%</t>
+          <t>48,75%</t>
         </is>
       </c>
     </row>
@@ -13096,12 +13096,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4614</t>
+          <t>4461</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12924</t>
+          <t>13225</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -13111,12 +13111,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -13131,12 +13131,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14027</t>
+          <t>13649</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -13146,12 +13146,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -13166,12 +13166,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10508</t>
+          <t>10503</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>22980</t>
+          <t>22564</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -13186,7 +13186,7 @@
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,0%</t>
         </is>
       </c>
     </row>
@@ -13326,12 +13326,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48220</t>
+          <t>47640</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66061</t>
+          <t>66371</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -13341,12 +13341,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,5%</t>
+          <t>47,72%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -13361,12 +13361,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57968</t>
+          <t>57680</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>74623</t>
+          <t>74240</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -13376,12 +13376,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -13396,12 +13396,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>110261</t>
+          <t>109659</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>135360</t>
+          <t>133897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -13411,12 +13411,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>40,76%</t>
+          <t>40,54%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>50,04%</t>
+          <t>49,5%</t>
         </is>
       </c>
     </row>
@@ -13439,12 +13439,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56069</t>
+          <t>57368</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76284</t>
+          <t>76709</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -13454,12 +13454,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>55,15%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -13474,12 +13474,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>47704</t>
+          <t>48334</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>64552</t>
+          <t>65242</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -13489,12 +13489,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -13509,12 +13509,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>110886</t>
+          <t>111778</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>137133</t>
+          <t>135662</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -13524,12 +13524,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>41,32%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>50,69%</t>
+          <t>50,15%</t>
         </is>
       </c>
     </row>
@@ -13552,12 +13552,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8597</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>28067</t>
+          <t>27801</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -13567,12 +13567,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -13587,12 +13587,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4810</t>
+          <t>4506</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>17312</t>
+          <t>16964</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -13602,12 +13602,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -13622,12 +13622,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>15493</t>
+          <t>15453</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>37842</t>
+          <t>38146</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -13637,12 +13637,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>14,1%</t>
         </is>
       </c>
     </row>
@@ -13782,12 +13782,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>37143</t>
+          <t>36116</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>52580</t>
+          <t>51329</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -13797,12 +13797,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -13817,12 +13817,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>47952</t>
+          <t>46998</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>63326</t>
+          <t>62806</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -13832,12 +13832,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>52,98%</t>
+          <t>52,54%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -13852,12 +13852,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>87709</t>
+          <t>88531</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>110691</t>
+          <t>110752</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -13867,12 +13867,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>46,67%</t>
+          <t>46,69%</t>
         </is>
       </c>
     </row>
@@ -13895,12 +13895,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52273</t>
+          <t>51794</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>68978</t>
+          <t>68922</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -13910,12 +13910,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>58,63%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -13930,12 +13930,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>50570</t>
+          <t>51335</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>66398</t>
+          <t>66780</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -13945,12 +13945,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>55,55%</t>
+          <t>55,87%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -13965,12 +13965,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>106707</t>
+          <t>107344</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>130099</t>
+          <t>130592</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -13980,12 +13980,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>45,26%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>55,06%</t>
         </is>
       </c>
     </row>
@@ -14008,12 +14008,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6214</t>
+          <t>6497</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25901</t>
+          <t>25444</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -14023,12 +14023,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -14043,12 +14043,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>2325</t>
+          <t>2470</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>13895</t>
+          <t>13713</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -14058,12 +14058,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -14078,12 +14078,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>10974</t>
+          <t>11132</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>32731</t>
+          <t>33557</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -14093,12 +14093,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>14,15%</t>
         </is>
       </c>
     </row>
@@ -14238,12 +14238,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24893</t>
+          <t>24647</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>38075</t>
+          <t>38049</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -14253,12 +14253,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>38,82%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -14273,12 +14273,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>39037</t>
+          <t>38905</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>53554</t>
+          <t>54692</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -14288,12 +14288,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -14308,12 +14308,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>66849</t>
+          <t>67994</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>87966</t>
+          <t>88580</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -14323,12 +14323,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>41,45%</t>
         </is>
       </c>
     </row>
@@ -14351,12 +14351,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>40563</t>
+          <t>39775</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>56029</t>
+          <t>55976</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -14366,12 +14366,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>41,39%</t>
+          <t>40,58%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>57,16%</t>
+          <t>57,11%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -14386,12 +14386,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>52046</t>
+          <t>52018</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>67010</t>
+          <t>68184</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -14401,12 +14401,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>57,93%</t>
+          <t>58,94%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -14421,12 +14421,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>97228</t>
+          <t>97523</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>118621</t>
+          <t>119725</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -14436,12 +14436,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>55,51%</t>
+          <t>56,03%</t>
         </is>
       </c>
     </row>
@@ -14464,12 +14464,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>11464</t>
+          <t>10598</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>29243</t>
+          <t>29187</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -14479,12 +14479,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -14499,12 +14499,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>5257</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>17531</t>
+          <t>18196</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -14514,12 +14514,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -14534,12 +14534,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>18302</t>
+          <t>18004</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>41059</t>
+          <t>41154</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -14549,12 +14549,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>19,26%</t>
         </is>
       </c>
     </row>
@@ -14694,12 +14694,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>15373</t>
+          <t>15082</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>25034</t>
+          <t>24823</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -14709,12 +14709,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -14729,12 +14729,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>18826</t>
+          <t>18428</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>30486</t>
+          <t>30156</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -14744,12 +14744,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>34,18%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -14764,12 +14764,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>35759</t>
+          <t>36675</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>51163</t>
+          <t>51434</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -14779,12 +14779,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>32,72%</t>
         </is>
       </c>
     </row>
@@ -14807,12 +14807,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>25297</t>
+          <t>25275</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37417</t>
+          <t>37854</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -14822,12 +14822,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>54,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -14842,12 +14842,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>37887</t>
+          <t>37611</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>51726</t>
+          <t>51197</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -14857,12 +14857,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>58,64%</t>
+          <t>58,04%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -14877,12 +14877,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>66936</t>
+          <t>66878</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>85396</t>
+          <t>85712</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -14892,12 +14892,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>54,32%</t>
+          <t>54,52%</t>
         </is>
       </c>
     </row>
@@ -14920,12 +14920,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>11594</t>
+          <t>11279</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>24993</t>
+          <t>25312</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -14935,12 +14935,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -14955,12 +14955,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>12782</t>
+          <t>13505</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>27334</t>
+          <t>28403</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -14970,12 +14970,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>14,49%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -14990,12 +14990,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>27571</t>
+          <t>27772</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>47829</t>
+          <t>48066</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -15005,12 +15005,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>30,57%</t>
         </is>
       </c>
     </row>
@@ -15150,12 +15150,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>12012</t>
+          <t>11543</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>20969</t>
+          <t>20724</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -15165,12 +15165,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>30,42%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -15185,12 +15185,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>7004</t>
+          <t>6622</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>14480</t>
+          <t>14222</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -15200,12 +15200,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -15220,12 +15220,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>20619</t>
+          <t>20610</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>32475</t>
+          <t>32597</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -15240,7 +15240,7 @@
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,8%</t>
         </is>
       </c>
     </row>
@@ -15263,12 +15263,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>23447</t>
+          <t>24454</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>35179</t>
+          <t>35680</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -15278,12 +15278,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>51,77%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -15298,12 +15298,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>31196</t>
+          <t>30729</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>45241</t>
+          <t>45402</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -15313,12 +15313,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>39,76%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -15333,12 +15333,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>58495</t>
+          <t>58053</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>76637</t>
+          <t>76771</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -15348,12 +15348,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>31,95%</t>
+          <t>31,7%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>41,93%</t>
         </is>
       </c>
     </row>
@@ -15376,12 +15376,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>17718</t>
+          <t>17357</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>30417</t>
+          <t>29165</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -15391,12 +15391,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>42,32%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -15411,12 +15411,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>58263</t>
+          <t>58845</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>73942</t>
+          <t>73898</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -15426,12 +15426,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>51,03%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>64,76%</t>
+          <t>64,72%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -15446,12 +15446,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>79386</t>
+          <t>79661</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>100520</t>
+          <t>100345</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -15461,12 +15461,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>43,35%</t>
+          <t>43,51%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>54,9%</t>
+          <t>54,8%</t>
         </is>
       </c>
     </row>
@@ -15606,12 +15606,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>207327</t>
+          <t>205158</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>243318</t>
+          <t>243403</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -15621,12 +15621,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>30,47%</t>
+          <t>30,15%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>35,76%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -15641,12 +15641,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>263628</t>
+          <t>264723</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>303731</t>
+          <t>302871</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -15656,12 +15656,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -15676,12 +15676,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>482307</t>
+          <t>480965</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>535304</t>
+          <t>532770</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -15691,12 +15691,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>37,03%</t>
         </is>
       </c>
     </row>
@@ -15719,12 +15719,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>334981</t>
+          <t>337560</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>376418</t>
+          <t>377456</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -15734,12 +15734,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>49,23%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>55,32%</t>
+          <t>55,47%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -15754,12 +15754,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>334615</t>
+          <t>335988</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>374814</t>
+          <t>376324</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -15769,12 +15769,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -15789,12 +15789,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>682616</t>
+          <t>684823</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>741329</t>
+          <t>745421</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -15804,12 +15804,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>51,53%</t>
+          <t>51,82%</t>
         </is>
       </c>
     </row>
@@ -15832,12 +15832,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>81530</t>
+          <t>80235</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>120107</t>
+          <t>119480</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -15847,12 +15847,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -15867,12 +15867,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>103000</t>
+          <t>103581</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>139533</t>
+          <t>140948</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -15882,12 +15882,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -15902,12 +15902,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>195678</t>
+          <t>192757</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>248472</t>
+          <t>244643</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -15917,12 +15917,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>13,4%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>17,01%</t>
         </is>
       </c>
     </row>
